--- a/00 Unity Proj/Package/Assets/Scripts/Data/ProgressData.xlsx
+++ b/00 Unity Proj/Package/Assets/Scripts/Data/ProgressData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikki\project-raven\00 Unity Proj\Package\Assets\Scripts\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E2662EE-7743-4327-BF2D-6B02DCFBD97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38A11E3-F7E4-47A5-95D4-D6997A18AEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{BDD4DA51-96FA-40E1-9304-6C684C339938}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>currentLocation</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>homeIteration</t>
+  </si>
+  <si>
+    <t>currentQuest</t>
+  </si>
+  <si>
+    <t>currentQuestStage</t>
   </si>
 </sst>
 </file>
@@ -419,15 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8A1C65-5D1C-4090-9D46-A1EDAF92924B}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -439,6 +445,12 @@
       </c>
       <c r="D1" t="s">
         <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
